--- a/va_facility_data_2025-02-20/Lawrenceville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lawrenceville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lawrenceville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lawrenceville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9fbe90fae36443a49a5f885cd0359aa3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R70ed387fb03445a7bb4a0538b5f9dbcf"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R91206c4bd8064d17848b8fae83cb6717"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Redf58ba2c29e4166855170bdaf136d59"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6920a215735b4d5a9b60cc5c74ad8432"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R87103ae65d094434bcef028bba7f549c"/>
   </x:sheets>
 </x:workbook>
 </file>
